--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB25B856-8B83-459E-B145-A782B9D9D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30CD18-B3BC-462F-8629-23B73AA91CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
   <sheets>
     <sheet name="partidas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -972,7 +983,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1061,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45808</v>
+        <v>45807</v>
       </c>
       <c r="B3">
         <v>2</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30CD18-B3BC-462F-8629-23B73AA91CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50756323-69F3-48E7-9F17-DF0E8E8A497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Partida</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Time_1</t>
+  </si>
+  <si>
+    <t>6x3</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,11 +1203,20 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>1</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50756323-69F3-48E7-9F17-DF0E8E8A497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAD8AB-CFA9-4D58-BD3B-D84C7E1263AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>Partida</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>6x3</t>
+  </si>
+  <si>
+    <t>5x0</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,11 +1238,20 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>1</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAD8AB-CFA9-4D58-BD3B-D84C7E1263AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C23F8E-7FEB-4691-9B41-E02EC292063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>Partida</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>5x0</t>
+  </si>
+  <si>
+    <t>3x0</t>
+  </si>
+  <si>
+    <t>8x1</t>
   </si>
 </sst>
 </file>
@@ -989,7 +995,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1005,7 @@
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,11 +1277,20 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1293,11 +1309,20 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>2</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C23F8E-7FEB-4691-9B41-E02EC292063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D711C-AA24-4DBA-AAB4-23E818623F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>38521</v>
+        <v>38520</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>38521</v>
+        <v>38520</v>
       </c>
       <c r="B12">
         <v>11</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5D711C-AA24-4DBA-AAB4-23E818623F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58099C6C-2276-491C-9ABA-63D02F683270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>Partida</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>8x1</t>
+  </si>
+  <si>
+    <t>1x4</t>
+  </si>
+  <si>
+    <t>3x1</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1001,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,11 +1347,20 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1364,11 +1379,20 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>2</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58099C6C-2276-491C-9ABA-63D02F683270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E2307-0FCB-408F-B141-9AB5E74CA5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Partida</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>3x1</t>
+  </si>
+  <si>
+    <t>7x3</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,11 +1414,20 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>2</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E2307-0FCB-408F-B141-9AB5E74CA5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5926DB9A-76C5-46D1-9598-5CBD795A8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>Partida</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>7x3</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t>3x3</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,11 +1452,20 @@
       <c r="D14" t="s">
         <v>23</v>
       </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1469,11 +1484,20 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>2</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5926DB9A-76C5-46D1-9598-5CBD795A8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88469697-FBE8-4E9F-A442-95C8569A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Partida</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>3x3</t>
+  </si>
+  <si>
+    <t>6x2</t>
+  </si>
+  <si>
+    <t>2x4</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440145DA-513F-44A3-B66F-ABAEC9147CC9}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,11 +1522,20 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -1539,11 +1554,20 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>3</v>

--- a/partidas.xlsx
+++ b/partidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88469697-FBE8-4E9F-A442-95C8569A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDF29D-884E-4CDB-B37C-D0AFF4835738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{12C10053-B841-4BC5-8438-78105E07242B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>Partida</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>2x4</t>
+  </si>
+  <si>
+    <t>4x6</t>
+  </si>
+  <si>
+    <t>2x3</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,11 +1592,20 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -1609,11 +1624,20 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -1632,11 +1656,20 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" t="s">
         <v>24</v>
       </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>3</v>
